--- a/Model Documentation & Review Reports/Review Reports/D6b_Final Validation Part 1_Findings.xlsx
+++ b/Model Documentation & Review Reports/Review Reports/D6b_Final Validation Part 1_Findings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fda.sharepoint.com/sites/CDER-OSP-OPSA-ADSS-Staff/Shared Documents/Projects/Opioids/FINAL Opioid Files for Public Access/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://partnershealthcare.sharepoint.com/sites/FDAOpioidmodelingteam/Shared Documents/Opioid Model/GitHub/SOURCE/Model Documentation &amp; Review Reports/Review Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1AEC862-5095-4A5C-A506-E8FD3FAB7CFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{B1AEC862-5095-4A5C-A506-E8FD3FAB7CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5411A4F-A3B3-465C-9A48-839FDB81FCC7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="4" r:id="rId1"/>
@@ -3538,10 +3538,6 @@
     <t>Documentation for a published comparator model.</t>
   </si>
   <si>
-    <t xml:space="preserve">We initiated the discussion on comparator model with the PAG on September 2 and identified 2 options (Pitt 2018 Model and Homer/Wakeland Model). We will discuss these options with Brad Morrison and share our recommendation with the PAG to receive concurrence. Model comparator will be solidified following Part 1 of the Final Validation. 
-</t>
-  </si>
-  <si>
     <t>List of Stakeholders</t>
   </si>
   <si>
@@ -3562,6 +3558,10 @@
   </si>
   <si>
     <t>Received, and will review  in greater detail at a later time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We initiated the discussion on comparator model with the PAG on September 2 and identified 2 options (Pitt 2018 Model and Homer/Wakeland Model). We will discuss these options with SD SME and share our recommendation with the PAG to receive concurrence. Model comparator will be solidified following Part 1 of the Final Validation. 
+</t>
   </si>
 </sst>
 </file>
@@ -4653,8 +4653,8 @@
   </sheetPr>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5135,7 +5135,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="23" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="23" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>23</v>
       </c>
@@ -6059,7 +6059,9 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6182,7 +6184,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="26" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>208</v>
       </c>
@@ -6190,7 +6192,7 @@
         <v>209</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>200</v>
@@ -6198,13 +6200,13 @@
     </row>
     <row r="10" spans="1:4" s="26" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="C10" s="26" t="s">
         <v>212</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>213</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>187</v>
@@ -6212,16 +6214,16 @@
     </row>
     <row r="11" spans="1:4" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="C11" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="D11" s="26" t="s">
         <v>216</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -6233,21 +6235,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A183296C2D9DE541958AD9D9A6E59D08" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ef9e81cc8ea135f7dd7143deedbca767">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="12e73323-2992-4b61-9f89-f2ff99442528" xmlns:ns3="60bd3312-76b2-43ff-ab1e-17ba520e0d12" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f6f209b185d7905ebfc3951605bf0c4b" ns2:_="" ns3:_="">
     <xsd:import namespace="12e73323-2992-4b61-9f89-f2ff99442528"/>
@@ -6464,7 +6451,49 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4928E0B9-1CF2-471D-8F7B-5FF2AF834310}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="12e73323-2992-4b61-9f89-f2ff99442528"/>
+    <ds:schemaRef ds:uri="60bd3312-76b2-43ff-ab1e-17ba520e0d12"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC04BB5F-D670-4C93-B853-D406AFCA4FDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8F1B3FE-6EF4-47AC-A6BA-4D98337483A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -6479,16 +6508,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC04BB5F-D670-4C93-B853-D406AFCA4FDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4928E0B9-1CF2-471D-8F7B-5FF2AF834310}"/>
 </file>